--- a/aula 3 dinav.xlsx
+++ b/aula 3 dinav.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ISEP\2semestre\dinav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9589D49-11BB-4139-AFC9-F1D58F6CBECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C7D121-FF99-461B-A557-758B7FDB4992}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E225CC39-573C-4298-816E-0ED3CCFD7ED7}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -129,7 +129,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,7 +453,7 @@
   <dimension ref="C3:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,11 +704,11 @@
         <v>88.9</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <f>G20*F20</f>
         <v>-40863.424651817695</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f>H20*F20</f>
         <v>163453.69860727078</v>
       </c>
       <c r="L20" s="1">
